--- a/biology/Zoologie/Gymnotocinclus_anosteos/Gymnotocinclus_anosteos.xlsx
+++ b/biology/Zoologie/Gymnotocinclus_anosteos/Gymnotocinclus_anosteos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnotocinclus anosteos, unique représentant du genre Gymnotocinclus, est une espèce de poissons d'eau douce de la famille des Loricariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnotocinclus anosteos est atypique comparé aux autres Loricariidae car l'armure, si caractéristique de cette famille, y est extrêmement réduite. Sa taille maximale est de 44 mm, queue non comprise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnotocinclus anosteos est atypique comparé aux autres Loricariidae car l'armure, si caractéristique de cette famille, y est extrêmement réduite. Sa taille maximale est de 44 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnotocinclus anosteos est endémique du rio Tocantinzinho (d) dans l’État de Goiás au Brésil[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnotocinclus anosteos est endémique du rio Tocantinzinho (d) dans l’État de Goiás au Brésil.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gymnotocinclus anosteos Carvalho (d), Lehmann-A. (d) &amp; Reis (d), 2008[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Gymnotocinclus anosteos Carvalho (d), Lehmann-A. (d) &amp; Reis (d), 2008.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Gymnotocinclus est composé de la racine grecque Gymno- γυμνός (gumnós) voulant dire nu et d’Otocinclus, l'un des genres de la sous-famille des Hypoptopomatinae en référence à la réduction très marqué de son armure.
 Le nom d'espèce anosteos signifie sans os en grec en raison de l'absence d'os de connexion latérale.
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) P. Tiago, Pablo C. Carvalho, A. Lehmann, Roberto E. Reis, « Gymnotocinclus anosteos, a new uniquely-plated genus and species of loricariid catfish (Teleostei: Siluriformes) from the upper rio Tocantins basin, central Brazil », Neotropical Ichthyology, vol. 6, no 3, 2008, p. 329-338 (lire en ligne).</t>
         </is>
